--- a/snapjiratp.xlsx
+++ b/snapjiratp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFA34A1-A46A-474D-B31B-74D4BF65B056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15229659-ED6F-42E2-865C-780646F02428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GA_gentp" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="130">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -504,7 +504,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table11" displayName="Table11" ref="A1:J14" totalsRowShown="0">
-  <autoFilter ref="A1:J14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A1:J14" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TestCaseID"/>
@@ -808,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
@@ -2229,7 +2235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2299,8 +2307,11 @@
       <c r="H2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>98</v>
       </c>
@@ -2314,7 +2325,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>102</v>
       </c>
@@ -2328,7 +2339,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>106</v>
       </c>
@@ -2361,8 +2372,11 @@
       <c r="H6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>99</v>
       </c>
@@ -2395,8 +2409,11 @@
       <c r="H8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>98</v>
       </c>
@@ -2410,7 +2427,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>102</v>
       </c>
@@ -2424,7 +2441,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>106</v>
       </c>
@@ -2457,8 +2474,14 @@
       <c r="H12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>99</v>
       </c>
@@ -2469,7 +2492,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>103</v>
       </c>

--- a/snapjiratp.xlsx
+++ b/snapjiratp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657E10D8-EBFC-45B5-A441-EDD09DEC24FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD80A1A-8ED2-4564-B7E1-6E1DE87824C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GA_gentp" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="132">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nhamm</t>
+  </si>
+  <si>
+    <t>gc5yh36</t>
   </si>
 </sst>
 </file>
@@ -802,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="D88" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,7 +1847,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>16</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
         <v>19</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>22</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
         <v>25</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
         <v>28</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
         <v>31</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
         <v>34</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>69</v>
       </c>
@@ -1964,7 +1970,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
         <v>16</v>
       </c>
@@ -1975,7 +1981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
         <v>19</v>
       </c>
@@ -1986,7 +1992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
         <v>22</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
         <v>25</v>
       </c>
@@ -2008,7 +2014,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
         <v>28</v>
       </c>
@@ -2019,7 +2025,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -2039,10 +2045,13 @@
         <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="J95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
         <v>16</v>
       </c>
@@ -2223,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,7 +2407,10 @@
         <v>118</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="J8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">

--- a/snapjiratp.xlsx
+++ b/snapjiratp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4978A2F1-87E3-46C2-AE5B-06CD3FD65DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622DA561-FD4D-472E-A268-0BCA524CFB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GA_gentp" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="132">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>checking</t>
+  </si>
+  <si>
+    <t>bccggcbg</t>
+  </si>
+  <si>
+    <t>vghghdghd</t>
   </si>
 </sst>
 </file>
@@ -808,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1853,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>16</v>
       </c>
@@ -1881,7 +1887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
         <v>19</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>22</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
         <v>25</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
         <v>28</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
         <v>31</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
         <v>34</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>69</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
         <v>16</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
         <v>19</v>
       </c>
@@ -1992,7 +1998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
         <v>22</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
         <v>25</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
         <v>28</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -2045,10 +2051,13 @@
         <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="J95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
         <v>16</v>
       </c>
@@ -2148,7 +2157,7 @@
         <v>128</v>
       </c>
       <c r="J103" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2229,7 +2238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2299,6 +2310,9 @@
       <c r="H2" t="s">
         <v>97</v>
       </c>
+      <c r="I2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
@@ -2313,6 +2327,9 @@
       <c r="H3" t="s">
         <v>101</v>
       </c>
+      <c r="I3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
@@ -2327,6 +2344,9 @@
       <c r="H4" t="s">
         <v>105</v>
       </c>
+      <c r="I4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
@@ -2338,6 +2358,9 @@
       <c r="H5" t="s">
         <v>108</v>
       </c>
+      <c r="I5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2361,6 +2384,9 @@
       <c r="H6" t="s">
         <v>112</v>
       </c>
+      <c r="I6" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
@@ -2372,6 +2398,9 @@
       <c r="H7" t="s">
         <v>114</v>
       </c>
+      <c r="I7" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2395,6 +2424,9 @@
       <c r="H8" t="s">
         <v>118</v>
       </c>
+      <c r="I8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
@@ -2409,6 +2441,9 @@
       <c r="H9" t="s">
         <v>101</v>
       </c>
+      <c r="I9" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
@@ -2423,6 +2458,9 @@
       <c r="H10" t="s">
         <v>105</v>
       </c>
+      <c r="I10" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
@@ -2434,6 +2472,9 @@
       <c r="H11" t="s">
         <v>119</v>
       </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2457,6 +2498,9 @@
       <c r="H12" t="s">
         <v>118</v>
       </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
@@ -2468,6 +2512,9 @@
       <c r="H13" t="s">
         <v>124</v>
       </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
@@ -2478,6 +2525,12 @@
       </c>
       <c r="H14" t="s">
         <v>126</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
